--- a/Staff&Projects(120).xlsx
+++ b/Staff&Projects(120).xlsx
@@ -6,138 +6,63 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Staff &amp; Projects(120)" r:id="rId3" sheetId="1"/>
+    <sheet name="Classes.Staff &amp; Projects(120)" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="213">
   <si>
     <t>Supervisor</t>
   </si>
   <si>
-    <t>Project</t>
+    <t>Classes.Project</t>
   </si>
   <si>
     <t>Target Audience</t>
   </si>
   <si>
-    <t>Johannes Gutenberg</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
+    <t>Humphrey Bogart</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>CS + DS</t>
+  </si>
+  <si>
+    <t>playing tough guys</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>Abstract views on pioneering new technologies</t>
-  </si>
-  <si>
-    <t>Rachel Green</t>
-  </si>
-  <si>
-    <t>getting a nose job</t>
+    <t>Abstract views on starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Condoleezza Rice</t>
+  </si>
+  <si>
+    <t>advising on foreign affairs</t>
+  </si>
+  <si>
+    <t>Abstract views on advising on foreign affairs</t>
+  </si>
+  <si>
+    <t>Hans Gruber</t>
+  </si>
+  <si>
+    <t>organizing armed robberies</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>Abstract views on getting a nose job</t>
-  </si>
-  <si>
-    <t>Bill Cosby</t>
-  </si>
-  <si>
-    <t>telling affable jokes</t>
-  </si>
-  <si>
-    <t>CS + DS</t>
-  </si>
-  <si>
-    <t>Abstract views on telling affable jokes</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Abstract views on playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Sarah Silverman</t>
-  </si>
-  <si>
-    <t>doing stand-up</t>
-  </si>
-  <si>
-    <t>insulting minorities</t>
-  </si>
-  <si>
-    <t>Abstract views on doing stand-up</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>searching for a new world</t>
-  </si>
-  <si>
-    <t>exploring the new world</t>
-  </si>
-  <si>
-    <t>Abstract views on searching for a new world</t>
-  </si>
-  <si>
-    <t>Bruce Banner</t>
-  </si>
-  <si>
-    <t>flying into a rage</t>
-  </si>
-  <si>
-    <t>bursting out of shirts</t>
-  </si>
-  <si>
-    <t>losing control</t>
-  </si>
-  <si>
-    <t>Fred Flintstone</t>
-  </si>
-  <si>
-    <t>pedalling engine-less cars</t>
-  </si>
-  <si>
-    <t>eating dinosaur ribs</t>
-  </si>
-  <si>
-    <t>Abstract views on pedalling engine-less cars</t>
-  </si>
-  <si>
-    <t>Charlie Harper</t>
-  </si>
-  <si>
-    <t>composing advertizing jingles</t>
-  </si>
-  <si>
-    <t>dating young women</t>
-  </si>
-  <si>
-    <t>seducing young women</t>
-  </si>
-  <si>
-    <t>Mikhail Gorbachev</t>
-  </si>
-  <si>
-    <t>coasting on past glories</t>
-  </si>
-  <si>
-    <t>Abstract views on coasting on past glories</t>
-  </si>
-  <si>
-    <t>Saga Norén</t>
+    <t>Abstract views on organizing armed robberies</t>
+  </si>
+  <si>
+    <t>Leroy Jethro Gibbs</t>
   </si>
   <si>
     <t>solving mysteries</t>
@@ -152,34 +77,325 @@
     <t>interpreting evidence</t>
   </si>
   <si>
-    <t>Napoleon Bonaparte</t>
+    <t>The HamBurglar</t>
+  </si>
+  <si>
+    <t>stealing hamburgers</t>
+  </si>
+  <si>
+    <t>Abstract views on stealing hamburgers</t>
+  </si>
+  <si>
+    <t>Doris Day</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Abstract views on starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>lying badly</t>
+  </si>
+  <si>
+    <t>playing poker badly</t>
+  </si>
+  <si>
+    <t>wanting to be a real person</t>
+  </si>
+  <si>
+    <t>Marty McFly</t>
+  </si>
+  <si>
+    <t>playing rock music</t>
+  </si>
+  <si>
+    <t>playing rock guitar</t>
+  </si>
+  <si>
+    <t>traveling in time</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>writing poetry</t>
+  </si>
+  <si>
+    <t>Abstract views on writing poetry</t>
+  </si>
+  <si>
+    <t>Princess Leia Organa</t>
+  </si>
+  <si>
+    <t>leading the rebel alliance</t>
+  </si>
+  <si>
+    <t>smuggling military plans</t>
+  </si>
+  <si>
+    <t>Abstract views on leading the rebel alliance</t>
+  </si>
+  <si>
+    <t>Marc Jacobs</t>
+  </si>
+  <si>
+    <t>designing clothes</t>
+  </si>
+  <si>
+    <t>Abstract views on designing clothes</t>
+  </si>
+  <si>
+    <t>Jack Donaghy</t>
+  </si>
+  <si>
+    <t>running a business empire</t>
+  </si>
+  <si>
+    <t>Abstract views on running a business empire</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>surviving in the 25th century</t>
+  </si>
+  <si>
+    <t>Abstract views on surviving in the 25th century</t>
+  </si>
+  <si>
+    <t>Bill Murray</t>
+  </si>
+  <si>
+    <t>starring in indy movies</t>
+  </si>
+  <si>
+    <t>telling dry jokes</t>
+  </si>
+  <si>
+    <t>Abstract views on starring in indy movies</t>
+  </si>
+  <si>
+    <t>Hermione Granger</t>
+  </si>
+  <si>
+    <t>concocting magic potions</t>
+  </si>
+  <si>
+    <t>casting magic spells</t>
+  </si>
+  <si>
+    <t>Abstract views on concocting magic potions</t>
+  </si>
+  <si>
+    <t>Baron Munchausen</t>
+  </si>
+  <si>
+    <t>telling tall tales</t>
+  </si>
+  <si>
+    <t>inventing lies</t>
+  </si>
+  <si>
+    <t>Abstract views on telling tall tales</t>
+  </si>
+  <si>
+    <t>Lt. George Colthurst St Barleigh</t>
+  </si>
+  <si>
+    <t>providing comic relief</t>
+  </si>
+  <si>
+    <t>Abstract views on providing comic relief</t>
+  </si>
+  <si>
+    <t>Robert E. Lee</t>
+  </si>
+  <si>
+    <t>winning battles</t>
+  </si>
+  <si>
+    <t>developing military strategies</t>
+  </si>
+  <si>
+    <t>leading armies into battle</t>
+  </si>
+  <si>
+    <t>Samuel Pepys</t>
+  </si>
+  <si>
+    <t>keeping a diary</t>
+  </si>
+  <si>
+    <t>Abstract views on keeping a diary</t>
+  </si>
+  <si>
+    <t>Adam Smith</t>
+  </si>
+  <si>
+    <t>promoting capitalism</t>
+  </si>
+  <si>
+    <t>Abstract views on promoting capitalism</t>
+  </si>
+  <si>
+    <t>Tyrion Lannister</t>
+  </si>
+  <si>
+    <t>developing political strategies</t>
+  </si>
+  <si>
+    <t>Abstract views on developing political strategies</t>
+  </si>
+  <si>
+    <t>Audrey Hepburn</t>
+  </si>
+  <si>
+    <t>Chief Clarence Wiggum</t>
+  </si>
+  <si>
+    <t>eating donuts</t>
+  </si>
+  <si>
+    <t>Abstract views on eating donuts</t>
+  </si>
+  <si>
+    <t>Mr. Spock</t>
+  </si>
+  <si>
+    <t>promoting science</t>
+  </si>
+  <si>
+    <t>studying science</t>
+  </si>
+  <si>
+    <t>promoting logical thinking</t>
+  </si>
+  <si>
+    <t>Orson Welles</t>
+  </si>
+  <si>
+    <t>directing Hollywood movies</t>
+  </si>
+  <si>
+    <t>writing Hollywood movies</t>
+  </si>
+  <si>
+    <t>directing indy movies</t>
+  </si>
+  <si>
+    <t>Nigel Tufnel</t>
+  </si>
+  <si>
+    <t>turning it up to 11</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>chasing rabbits</t>
+  </si>
+  <si>
+    <t>spitting while speaking</t>
+  </si>
+  <si>
+    <t>Abstract views on chasing rabbits</t>
+  </si>
+  <si>
+    <t>Tess Durbeyfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> climbing social ladders</t>
+  </si>
+  <si>
+    <t>Abstract views on  climbing social ladders</t>
+  </si>
+  <si>
+    <t>Cameron Diaz</t>
+  </si>
+  <si>
+    <t>Mata Hari</t>
+  </si>
+  <si>
+    <t>spying for the enemy</t>
+  </si>
+  <si>
+    <t>seducing miltary officers</t>
+  </si>
+  <si>
+    <t>selling military secrets</t>
+  </si>
+  <si>
+    <t>Bette Midler</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>over-acting</t>
+  </si>
+  <si>
+    <t>Abstract views on singing torch songs</t>
+  </si>
+  <si>
+    <t>Coriolanus Snow</t>
+  </si>
+  <si>
+    <t>running a bureaucracy</t>
   </si>
   <si>
     <t>running an empire</t>
   </si>
   <si>
-    <t>developing military strategies</t>
-  </si>
-  <si>
-    <t>leading armies into battle</t>
-  </si>
-  <si>
-    <t>winning battles</t>
-  </si>
-  <si>
-    <t>Bernard Madoff</t>
-  </si>
-  <si>
-    <t>cheating clients</t>
-  </si>
-  <si>
-    <t>running Ponzi schemes</t>
-  </si>
-  <si>
-    <t>running pyramid schemes</t>
-  </si>
-  <si>
-    <t>Karen Carpenter</t>
+    <t>crushing dissent</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>investing in real estate</t>
+  </si>
+  <si>
+    <t>developing real estate</t>
+  </si>
+  <si>
+    <t>building giant walls</t>
+  </si>
+  <si>
+    <t>postulating bizarre theories,</t>
+  </si>
+  <si>
+    <t>Michael Bay</t>
+  </si>
+  <si>
+    <t>directing action movies</t>
+  </si>
+  <si>
+    <t>entertaining teenagers</t>
+  </si>
+  <si>
+    <t>directing robot movies</t>
+  </si>
+  <si>
+    <t>Shirley Temple</t>
+  </si>
+  <si>
+    <t>King David</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>running a kingdom</t>
+  </si>
+  <si>
+    <t>Abstract views on ruling over subjects</t>
+  </si>
+  <si>
+    <t>Paul McCartney</t>
   </si>
   <si>
     <t>singing pop songs</t>
@@ -188,463 +404,253 @@
     <t>writing pop songs</t>
   </si>
   <si>
-    <t>playing drums</t>
-  </si>
-  <si>
-    <t>losing weight</t>
-  </si>
-  <si>
-    <t>Liz Lemon</t>
-  </si>
-  <si>
-    <t>writing comedy</t>
-  </si>
-  <si>
-    <t>writing TV comedies</t>
-  </si>
-  <si>
-    <t>Abstract views on writing comedy</t>
-  </si>
-  <si>
-    <t>Lando Calrissian</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise</t>
-  </si>
-  <si>
-    <t>fighting for the rebel alliance</t>
-  </si>
-  <si>
-    <t>Abstract views on running a criminal enterprise</t>
-  </si>
-  <si>
-    <t>Niccolò Machiavelli</t>
-  </si>
-  <si>
-    <t>currying favour</t>
-  </si>
-  <si>
-    <t>developing cunning plans</t>
+    <t>Abstract views on singing pop songs</t>
+  </si>
+  <si>
+    <t>Phoebe Buffay</t>
+  </si>
+  <si>
+    <t>singing parody songs</t>
+  </si>
+  <si>
+    <t>singing goofy songs</t>
+  </si>
+  <si>
+    <t>Abstract views on singing parody songs</t>
+  </si>
+  <si>
+    <t>Superman</t>
+  </si>
+  <si>
+    <t>reporting the news</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>fighting for justice</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>Richard B. Riddick</t>
+  </si>
+  <si>
+    <t>evading mercenaries</t>
+  </si>
+  <si>
+    <t>Abstract views on evading mercenaries</t>
+  </si>
+  <si>
+    <t>Princess Diana</t>
+  </si>
+  <si>
+    <t>posing for photographs</t>
+  </si>
+  <si>
+    <t>Abstract views on posing for photographs</t>
+  </si>
+  <si>
+    <t>Bilbo Baggins</t>
+  </si>
+  <si>
+    <t>solving riddles</t>
+  </si>
+  <si>
+    <t>posing riddles</t>
+  </si>
+  <si>
+    <t>Abstract views on solving riddles</t>
+  </si>
+  <si>
+    <t>George Clooney</t>
+  </si>
+  <si>
+    <t>womanizing</t>
+  </si>
+  <si>
+    <t>promoting political causes</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>writing about sex</t>
+  </si>
+  <si>
+    <t>shopping for shoes</t>
+  </si>
+  <si>
+    <t>gossiping with galpals</t>
+  </si>
+  <si>
+    <t>Saint Peter</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>Abstract views on promoting conservative values</t>
+  </si>
+  <si>
+    <t>Dr. Eldon Tyrell</t>
+  </si>
+  <si>
+    <t>designing replicants</t>
+  </si>
+  <si>
+    <t>building replicants</t>
+  </si>
+  <si>
+    <t>Abstract views on designing replicants</t>
+  </si>
+  <si>
+    <t>Agent Smith</t>
+  </si>
+  <si>
+    <t>fighting the resistance</t>
+  </si>
+  <si>
+    <t>Abstract views on fighting the resistance</t>
+  </si>
+  <si>
+    <t>Fred Astaire</t>
+  </si>
+  <si>
+    <t>starring in musical comedies</t>
+  </si>
+  <si>
+    <t>enjoying ball-room dancing</t>
+  </si>
+  <si>
+    <t>David Blaine</t>
+  </si>
+  <si>
+    <t>performing street magic</t>
+  </si>
+  <si>
+    <t>performing magic tricks</t>
+  </si>
+  <si>
+    <t>Abstract views on performing street magic</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>running a multinational corporation</t>
+  </si>
+  <si>
+    <t>seducing women</t>
+  </si>
+  <si>
+    <t>Howard Stern</t>
+  </si>
+  <si>
+    <t>shocking radio listeners</t>
+  </si>
+  <si>
+    <t>hosting radio shows</t>
+  </si>
+  <si>
+    <t>Abstract views on shocking radio listeners</t>
+  </si>
+  <si>
+    <t>Morty Smith</t>
+  </si>
+  <si>
+    <t>standing up to bullies</t>
+  </si>
+  <si>
+    <t>spying on girls</t>
+  </si>
+  <si>
+    <t>Abstract views on standing up to bullies</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>giving speeches</t>
+  </si>
+  <si>
+    <t>Abstract views on campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>Frodo Baggins</t>
+  </si>
+  <si>
+    <t>disposing of unwanted jewelry</t>
+  </si>
+  <si>
+    <t>Abstract views on disposing of unwanted jewelry</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>Abstract views on running an empire</t>
+  </si>
+  <si>
+    <t>Frank Underwood</t>
+  </si>
+  <si>
+    <t>plotting election strategies</t>
+  </si>
+  <si>
+    <t>directing the business of state</t>
+  </si>
+  <si>
+    <t>manipulating political pawns</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
   </si>
   <si>
     <t>wielding political power</t>
   </si>
   <si>
-    <t>Frank Capra</t>
-  </si>
-  <si>
-    <t>making idealistic movies</t>
-  </si>
-  <si>
-    <t>Abstract views on making idealistic movies</t>
-  </si>
-  <si>
-    <t>Ted Cruz</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>Abstract views on promoting conservative values</t>
-  </si>
-  <si>
-    <t>Joaquin Phoenix</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>starring in indy movies</t>
-  </si>
-  <si>
-    <t>Abstract views on starring in action movies</t>
-  </si>
-  <si>
-    <t>Condoleezza Rice</t>
-  </si>
-  <si>
-    <t>advising on foreign affairs</t>
-  </si>
-  <si>
-    <t>Abstract views on advising on foreign affairs</t>
-  </si>
-  <si>
-    <t>Huckleberry Finn</t>
-  </si>
-  <si>
-    <t>growing up poor</t>
-  </si>
-  <si>
-    <t>Abstract views on growing up poor</t>
-  </si>
-  <si>
-    <t>Olive Oyl</t>
-  </si>
-  <si>
-    <t>doing the Charleston</t>
-  </si>
-  <si>
-    <t>Abstract views on doing the Charleston</t>
-  </si>
-  <si>
-    <t>Alan Sugar</t>
-  </si>
-  <si>
-    <t>selling consumer goods</t>
-  </si>
-  <si>
-    <t>Abstract views on selling consumer goods</t>
-  </si>
-  <si>
-    <t>Carl Von Clausewitz</t>
-  </si>
-  <si>
-    <t>Abstract views on developing military strategies</t>
-  </si>
-  <si>
-    <t>General Zod</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>striving for world domination</t>
-  </si>
-  <si>
-    <t>seeking revenge</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Abstract views on running an empire</t>
-  </si>
-  <si>
-    <t>Mick Jagger</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>writing rock songs</t>
-  </si>
-  <si>
-    <t>gyrating hips</t>
-  </si>
-  <si>
-    <t>Salvador Dali</t>
-  </si>
-  <si>
-    <t>painting surreal pictures</t>
-  </si>
-  <si>
-    <t>creating optical illusions</t>
-  </si>
-  <si>
-    <t>Abstract views on painting surreal pictures</t>
-  </si>
-  <si>
-    <t>Professor Charles Xavier</t>
-  </si>
-  <si>
-    <t>teaching young mutants</t>
-  </si>
-  <si>
-    <t>teaching the next generation</t>
-  </si>
-  <si>
-    <t>promoting diversity</t>
-  </si>
-  <si>
-    <t>promoting tolerance</t>
-  </si>
-  <si>
-    <t>reading minds</t>
-  </si>
-  <si>
-    <t>running a school for gifted teens</t>
-  </si>
-  <si>
-    <t>Wernher von Braun</t>
-  </si>
-  <si>
-    <t>building rocket ships</t>
-  </si>
-  <si>
-    <t>Abstract views on building rocket ships</t>
-  </si>
-  <si>
-    <t>Carl Sagan</t>
-  </si>
-  <si>
-    <t>studying the cosmos</t>
-  </si>
-  <si>
-    <t>Abstract views on studying the cosmos</t>
-  </si>
-  <si>
-    <t>Keith Richards</t>
-  </si>
-  <si>
-    <t>playing rock music</t>
-  </si>
-  <si>
-    <t>playing rock guitar</t>
-  </si>
-  <si>
-    <t>Abstract views on playing rock music</t>
-  </si>
-  <si>
-    <t>Madeleine Albright</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting for democracy</t>
-  </si>
-  <si>
-    <t>Abstract views on  fighting for democracy</t>
-  </si>
-  <si>
-    <t>Baron Munchausen</t>
-  </si>
-  <si>
-    <t>telling tall tales</t>
-  </si>
-  <si>
-    <t>inventing lies</t>
-  </si>
-  <si>
-    <t>Abstract views on telling tall tales</t>
-  </si>
-  <si>
-    <t>Moses</t>
-  </si>
-  <si>
-    <t>leading an exodus</t>
-  </si>
-  <si>
-    <t>Abstract views on leading an exodus</t>
-  </si>
-  <si>
-    <t>Glenn Quagmire</t>
-  </si>
-  <si>
-    <t>chasing women</t>
-  </si>
-  <si>
-    <t>exploiting women</t>
-  </si>
-  <si>
-    <t>looking for sex</t>
-  </si>
-  <si>
-    <t>Staff Member</t>
-  </si>
-  <si>
-    <t>Research Activity</t>
-  </si>
-  <si>
-    <t>Abstract views on Research Activity</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Abstract views on singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Rudy Giuliani</t>
-  </si>
-  <si>
-    <t>running a large metropolitan city</t>
-  </si>
-  <si>
-    <t>Abstract views on running a large metropolitan city</t>
-  </si>
-  <si>
-    <t>Oliver Cromwell</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting with swords</t>
-  </si>
-  <si>
-    <t>spreading revolution</t>
-  </si>
-  <si>
-    <t>instigating rebellion</t>
-  </si>
-  <si>
-    <t>leading revolts</t>
-  </si>
-  <si>
-    <t>Barry White</t>
-  </si>
-  <si>
-    <t>singing romantic songs</t>
-  </si>
-  <si>
-    <t>Abstract views on singing romantic songs</t>
-  </si>
-  <si>
-    <t>Martha Stewart</t>
-  </si>
-  <si>
-    <t>cooking dinners</t>
-  </si>
-  <si>
-    <t>writing cook books</t>
-  </si>
-  <si>
-    <t>running a media empire</t>
-  </si>
-  <si>
-    <t>Jerry Maguire</t>
-  </si>
-  <si>
-    <t>promoting greed</t>
-  </si>
-  <si>
-    <t>Abstract views on promoting greed</t>
-  </si>
-  <si>
-    <t>Vladimir Lenin</t>
-  </si>
-  <si>
-    <t>promoting communism</t>
-  </si>
-  <si>
-    <t>fighting for worker's rights</t>
-  </si>
-  <si>
-    <t>arguing against capitalism</t>
-  </si>
-  <si>
-    <t>Peter Parker</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>maintaining a secret identity</t>
-  </si>
-  <si>
-    <t>Abstract views on studying science</t>
-  </si>
-  <si>
-    <t>Nikola Tesla</t>
-  </si>
-  <si>
-    <t>inventing electrical marvels</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>Baldrick</t>
-  </si>
-  <si>
-    <t>providing comic relief</t>
-  </si>
-  <si>
-    <t>Abstract views on developing cunning plans</t>
-  </si>
-  <si>
-    <t>Luke Skywalker</t>
-  </si>
-  <si>
-    <t>rescuing damsels in distress</t>
-  </si>
-  <si>
-    <t>Abstract views on fighting for the rebel alliance</t>
-  </si>
-  <si>
-    <t>Hulk Hogan</t>
-  </si>
-  <si>
-    <t>pretending to wrestle</t>
-  </si>
-  <si>
-    <t>pretending to fight</t>
-  </si>
-  <si>
-    <t>Abstract views on pretending to wrestle</t>
-  </si>
-  <si>
-    <t>Ned Flanders</t>
-  </si>
-  <si>
-    <t>being a good neighbor</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Abstract views on painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
-  </si>
-  <si>
-    <t>Abstract views on singing pop songs</t>
-  </si>
-  <si>
-    <t>Judge Joe Dredd</t>
-  </si>
-  <si>
-    <t>tracking down criminals</t>
-  </si>
-  <si>
-    <t>preventing crime</t>
-  </si>
-  <si>
-    <t>punishing criminals</t>
-  </si>
-  <si>
-    <t>Leon Trotsky</t>
-  </si>
-  <si>
-    <t>Abstract views on spreading revolution</t>
-  </si>
-  <si>
-    <t>John Calvin</t>
-  </si>
-  <si>
-    <t>Agent Smith</t>
-  </si>
-  <si>
-    <t>fighting the resistance</t>
-  </si>
-  <si>
-    <t>Abstract views on fighting the resistance</t>
-  </si>
-  <si>
-    <t>Isaac Newton</t>
-  </si>
-  <si>
-    <t>studying mathematics</t>
-  </si>
-  <si>
-    <t>proving math theorems</t>
-  </si>
-  <si>
-    <t>Abstract views on studying mathematics</t>
-  </si>
-  <si>
-    <t>René Descartes</t>
-  </si>
-  <si>
-    <t>teaching philosophy</t>
-  </si>
-  <si>
-    <t>spreading philosophy</t>
-  </si>
-  <si>
-    <t>Abstract views on teaching philosophy</t>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>Abstract views on promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>Rembrandt</t>
+  </si>
+  <si>
+    <t>painting colorful pictures</t>
+  </si>
+  <si>
+    <t>painting self-portraits</t>
+  </si>
+  <si>
+    <t>Abstract views on painting colorful pictures</t>
+  </si>
+  <si>
+    <t>Michael Myers</t>
+  </si>
+  <si>
+    <t>terrorizing sleepers</t>
+  </si>
+  <si>
+    <t>creating nightmares</t>
+  </si>
+  <si>
+    <t>killing teenagers</t>
+  </si>
+  <si>
+    <t>slashing victims</t>
+  </si>
+  <si>
+    <t>Buddy Holly</t>
   </si>
 </sst>
 </file>
@@ -695,14 +701,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:C167"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.7734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.09765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.5234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="15.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -736,238 +742,238 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
         <v>34</v>
       </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -978,7 +984,7 @@
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -989,92 +995,92 @@
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
         <v>41</v>
       </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1085,10 +1091,10 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1096,21 +1102,21 @@
         <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
@@ -1118,10 +1124,10 @@
         <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
@@ -1129,106 +1135,106 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1236,10 +1242,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1247,54 +1253,54 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1302,112 +1308,112 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
         <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
         <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -1415,106 +1421,106 @@
         <v>91</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B68" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" t="s">
         <v>96</v>
       </c>
-      <c r="B70" t="s">
-        <v>99</v>
-      </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B71" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B72" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1522,175 +1528,175 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" t="s">
         <v>102</v>
       </c>
-      <c r="B75" t="s">
-        <v>105</v>
-      </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" t="s">
         <v>106</v>
       </c>
-      <c r="B78" t="s">
-        <v>109</v>
-      </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B80" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" t="s">
         <v>110</v>
       </c>
-      <c r="B81" t="s">
-        <v>113</v>
-      </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B82" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B84" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B85" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B86" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B87" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B88" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B89" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B90" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -1698,10 +1704,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B91" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -1709,10 +1715,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B92" t="s">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -1720,10 +1726,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B93" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -1731,164 +1737,164 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B94" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B95" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B96" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B97" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C97" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B98" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B100" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B101" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B102" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B103" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B104" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B105" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C105" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B106" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C106" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B107" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C107" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B108" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -1896,54 +1902,54 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B109" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C109" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B110" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C110" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B111" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B112" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B113" t="s">
-        <v>157</v>
+        <v>4</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -1951,10 +1957,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B114" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -1962,10 +1968,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B115" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -1973,65 +1979,65 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B116" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C116" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B117" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B118" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B119" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B120" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C120" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B121" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2039,98 +2045,98 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B123" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B124" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B125" t="s">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="C125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B126" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C127" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B128" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B129" t="s">
-        <v>125</v>
+        <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B130" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2138,98 +2144,98 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B131" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B132" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B133" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B134" t="s">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B135" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B136" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B137" t="s">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="C137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B138" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C138" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B139" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2237,186 +2243,186 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B140" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B141" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B142" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B143" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C143" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B144" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C144" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B145" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="C145" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B146" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="C146" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B147" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C147" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B148" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B149" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
+        <v>192</v>
+      </c>
+      <c r="B150" t="s">
         <v>193</v>
       </c>
-      <c r="B150" t="s">
-        <v>43</v>
-      </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B151" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="C152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>194</v>
+      </c>
+      <c r="B153" t="s">
         <v>197</v>
       </c>
-      <c r="B153" t="s">
-        <v>166</v>
-      </c>
       <c r="C153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B154" t="s">
         <v>198</v>
       </c>
       <c r="C154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
+        <v>194</v>
+      </c>
+      <c r="B155" t="s">
         <v>199</v>
       </c>
-      <c r="B155" t="s">
-        <v>76</v>
-      </c>
       <c r="C155" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B156" t="s">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -2427,21 +2433,21 @@
         <v>200</v>
       </c>
       <c r="B157" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B158" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
@@ -2449,10 +2455,10 @@
         <v>203</v>
       </c>
       <c r="B159" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C159" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160">
@@ -2460,21 +2466,21 @@
         <v>203</v>
       </c>
       <c r="B160" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C160" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B161" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162">
@@ -2482,10 +2488,10 @@
         <v>207</v>
       </c>
       <c r="B162" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163">
@@ -2493,10 +2499,10 @@
         <v>207</v>
       </c>
       <c r="B163" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C163" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164">
@@ -2504,9 +2510,42 @@
         <v>207</v>
       </c>
       <c r="B164" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C164" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>212</v>
+      </c>
+      <c r="B165" t="s">
+        <v>128</v>
+      </c>
+      <c r="C165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>212</v>
+      </c>
+      <c r="B166" t="s">
+        <v>129</v>
+      </c>
+      <c r="C166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>212</v>
+      </c>
+      <c r="B167" t="s">
+        <v>130</v>
+      </c>
+      <c r="C167" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Staff&Projects(120).xlsx
+++ b/Staff&Projects(120).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="199">
   <si>
     <t>Supervisor</t>
   </si>
@@ -23,46 +23,106 @@
     <t>Target Audience</t>
   </si>
   <si>
-    <t>Humphrey Bogart</t>
+    <t>Vladimir Putin</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>bullying neighboring countries</t>
+  </si>
+  <si>
+    <t>Abstract views on running an empire</t>
+  </si>
+  <si>
+    <t>Joan Crawford</t>
   </si>
   <si>
     <t>starring in Hollywood movies</t>
   </si>
   <si>
+    <t>Abstract views on starring in Hollywood movies</t>
+  </si>
+  <si>
     <t>CS + DS</t>
   </si>
   <si>
-    <t>playing tough guys</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>Abstract views on starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Condoleezza Rice</t>
-  </si>
-  <si>
-    <t>advising on foreign affairs</t>
-  </si>
-  <si>
-    <t>Abstract views on advising on foreign affairs</t>
-  </si>
-  <si>
-    <t>Hans Gruber</t>
-  </si>
-  <si>
-    <t>organizing armed robberies</t>
+    <t>Bruce Wayne</t>
+  </si>
+  <si>
+    <t>attending cocktail parties</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>Abstract views on organizing armed robberies</t>
-  </si>
-  <si>
-    <t>Leroy Jethro Gibbs</t>
+    <t>running a multinational corporation</t>
+  </si>
+  <si>
+    <t>maintaining a secret identity</t>
+  </si>
+  <si>
+    <t>Megyn Kelly</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>Abstract views on promoting conservative values</t>
+  </si>
+  <si>
+    <t>Nicolas Sarkozy</t>
+  </si>
+  <si>
+    <t>partying on yachts</t>
+  </si>
+  <si>
+    <t>Abstract views on partying on yachts</t>
+  </si>
+  <si>
+    <t>Coco Chanel</t>
+  </si>
+  <si>
+    <t>designing haute couture</t>
+  </si>
+  <si>
+    <t>selling perfumes</t>
+  </si>
+  <si>
+    <t>Abstract views on designing haute couture</t>
+  </si>
+  <si>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>Abstract views on singing rock songs</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>investing in real estate</t>
+  </si>
+  <si>
+    <t>developing real estate</t>
+  </si>
+  <si>
+    <t>building giant walls</t>
+  </si>
+  <si>
+    <t>postulating bizarre theories,</t>
+  </si>
+  <si>
+    <t>Sam Spade</t>
   </si>
   <si>
     <t>solving mysteries</t>
@@ -71,514 +131,382 @@
     <t>solving crimes</t>
   </si>
   <si>
+    <t>Abstract views on solving mysteries</t>
+  </si>
+  <si>
+    <t>Red Sonja</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>Abstract views on defending the weak</t>
+  </si>
+  <si>
+    <t>Margaret Thatcher</t>
+  </si>
+  <si>
+    <t>Morgana Le Fay</t>
+  </si>
+  <si>
+    <t>performing magic tricks</t>
+  </si>
+  <si>
+    <t>studying magic tricks</t>
+  </si>
+  <si>
+    <t>teaching magic</t>
+  </si>
+  <si>
+    <t>brewing magican potions</t>
+  </si>
+  <si>
+    <t>casting magic spells</t>
+  </si>
+  <si>
+    <t>Tarzan</t>
+  </si>
+  <si>
+    <t>swinging from tree to tree</t>
+  </si>
+  <si>
+    <t>communicating with animals</t>
+  </si>
+  <si>
+    <t>living amongst apes</t>
+  </si>
+  <si>
+    <t>Mr. Spock</t>
+  </si>
+  <si>
+    <t>promoting science</t>
+  </si>
+  <si>
+    <t>studying science</t>
+  </si>
+  <si>
+    <t>promoting logical thinking</t>
+  </si>
+  <si>
+    <t>Sarah Silverman</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>insulting minorities</t>
+  </si>
+  <si>
+    <t>Abstract views on doing stand-up</t>
+  </si>
+  <si>
+    <t>Nigel Tufnel</t>
+  </si>
+  <si>
+    <t>playing rock music</t>
+  </si>
+  <si>
+    <t>playing rock guitar</t>
+  </si>
+  <si>
+    <t>turning it up to 11</t>
+  </si>
+  <si>
+    <t>Rainier Luftwaffe Wolfcastle</t>
+  </si>
+  <si>
+    <t>making action movies</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>Abstract views on making action movies</t>
+  </si>
+  <si>
+    <t>Tom Sawyer</t>
+  </si>
+  <si>
+    <t>playing pranks</t>
+  </si>
+  <si>
+    <t>Abstract views on playing pranks</t>
+  </si>
+  <si>
+    <t>Pope Benedict XVI</t>
+  </si>
+  <si>
+    <t>promoting Catholic values</t>
+  </si>
+  <si>
+    <t>Thomas Pynchon</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>Abstract views on writing modern fiction</t>
+  </si>
+  <si>
+    <t>Ronald McDonald</t>
+  </si>
+  <si>
+    <t>flipping hamburgers</t>
+  </si>
+  <si>
+    <t>Abstract views on flipping hamburgers</t>
+  </si>
+  <si>
+    <t>Timothy McGee</t>
+  </si>
+  <si>
     <t>finding clues</t>
   </si>
   <si>
     <t>interpreting evidence</t>
   </si>
   <si>
-    <t>The HamBurglar</t>
-  </si>
-  <si>
-    <t>stealing hamburgers</t>
-  </si>
-  <si>
-    <t>Abstract views on stealing hamburgers</t>
-  </si>
-  <si>
-    <t>Doris Day</t>
+    <t>hacking into computers</t>
+  </si>
+  <si>
+    <t>Benny Hill</t>
+  </si>
+  <si>
+    <t>chasing old women</t>
+  </si>
+  <si>
+    <t>Abstract views on chasing old women</t>
+  </si>
+  <si>
+    <t>Joseph McCarthy</t>
+  </si>
+  <si>
+    <t>fighting for democracy</t>
+  </si>
+  <si>
+    <t>promoting democracy</t>
+  </si>
+  <si>
+    <t>Abstract views on fighting for democracy</t>
+  </si>
+  <si>
+    <t>Madonna</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>promoting Kaballah</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>designing modern buildings</t>
+  </si>
+  <si>
+    <t>Abstract views on designing modern buildings</t>
+  </si>
+  <si>
+    <t>Morrissey</t>
+  </si>
+  <si>
+    <t>Abstract views on singing pop songs</t>
+  </si>
+  <si>
+    <t>Kim Jung-un</t>
+  </si>
+  <si>
+    <t>crushing dissent</t>
+  </si>
+  <si>
+    <t>amassing nuclear weapons</t>
+  </si>
+  <si>
+    <t>issuing threats</t>
+  </si>
+  <si>
+    <t>enriching uranium</t>
+  </si>
+  <si>
+    <t>Montgomery Burns</t>
+  </si>
+  <si>
+    <t>releasing the hounds</t>
+  </si>
+  <si>
+    <t>counting money</t>
+  </si>
+  <si>
+    <t>amassing wealth</t>
+  </si>
+  <si>
+    <t>Kellyanne Conway</t>
+  </si>
+  <si>
+    <t>offering advice</t>
+  </si>
+  <si>
+    <t>Abstract views on offering advice</t>
+  </si>
+  <si>
+    <t>Dirty Harry Callahan</t>
+  </si>
+  <si>
+    <t>tracking down criminals</t>
+  </si>
+  <si>
+    <t>preventing crime</t>
+  </si>
+  <si>
+    <t>punishing criminals</t>
+  </si>
+  <si>
+    <t>Tony DiNozzo</t>
+  </si>
+  <si>
+    <t>Maleficent</t>
+  </si>
+  <si>
+    <t>poisoning an apple</t>
+  </si>
+  <si>
+    <t>Abstract views on poisoning an apple</t>
+  </si>
+  <si>
+    <t>John Travolta</t>
+  </si>
+  <si>
+    <t>dancing to disco music</t>
+  </si>
+  <si>
+    <t>playing camp villains</t>
+  </si>
+  <si>
+    <t>James Bond</t>
+  </si>
+  <si>
+    <t>shagging spies</t>
+  </si>
+  <si>
+    <t>killing for Mi6</t>
+  </si>
+  <si>
+    <t>Lord Byron</t>
+  </si>
+  <si>
+    <t>writing romantic poetry</t>
+  </si>
+  <si>
+    <t>womanizing</t>
+  </si>
+  <si>
+    <t>seducing women</t>
+  </si>
+  <si>
+    <t>scandalizing polite society</t>
+  </si>
+  <si>
+    <t>Tomás de Torquemada</t>
+  </si>
+  <si>
+    <t>extracting confessions</t>
+  </si>
+  <si>
+    <t>Elton John</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shopping for shoes</t>
+  </si>
+  <si>
+    <t>peacocking in fancy clothes</t>
+  </si>
+  <si>
+    <t>Abstract views on  shopping for shoes</t>
+  </si>
+  <si>
+    <t>Hugh Jackman</t>
+  </si>
+  <si>
+    <t>Green Lantern</t>
+  </si>
+  <si>
+    <t>guarding the galaxy</t>
+  </si>
+  <si>
+    <t>Abstract views on foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>Luciano Pavarotti</t>
+  </si>
+  <si>
+    <t>singing opera arias</t>
+  </si>
+  <si>
+    <t>Abstract views on singing opera arias</t>
+  </si>
+  <si>
+    <t>Arthur Conan Doyle</t>
+  </si>
+  <si>
+    <t>writing mystery stories</t>
+  </si>
+  <si>
+    <t>Abstract views on writing mystery stories</t>
+  </si>
+  <si>
+    <t>Steve Bannon</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>writing modern poetry</t>
+  </si>
+  <si>
+    <t>Abstract views on writing modern poetry</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
+  </si>
+  <si>
+    <t>singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>recording pop songs</t>
   </si>
   <si>
     <t>starring in romantic comedies</t>
   </si>
   <si>
-    <t>Abstract views on starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>lying badly</t>
-  </si>
-  <si>
-    <t>playing poker badly</t>
-  </si>
-  <si>
-    <t>wanting to be a real person</t>
-  </si>
-  <si>
-    <t>Marty McFly</t>
-  </si>
-  <si>
-    <t>playing rock music</t>
-  </si>
-  <si>
-    <t>playing rock guitar</t>
-  </si>
-  <si>
-    <t>traveling in time</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>writing poetry</t>
-  </si>
-  <si>
-    <t>Abstract views on writing poetry</t>
-  </si>
-  <si>
-    <t>Princess Leia Organa</t>
-  </si>
-  <si>
-    <t>leading the rebel alliance</t>
-  </si>
-  <si>
-    <t>smuggling military plans</t>
-  </si>
-  <si>
-    <t>Abstract views on leading the rebel alliance</t>
-  </si>
-  <si>
-    <t>Marc Jacobs</t>
-  </si>
-  <si>
-    <t>designing clothes</t>
-  </si>
-  <si>
-    <t>Abstract views on designing clothes</t>
-  </si>
-  <si>
-    <t>Jack Donaghy</t>
-  </si>
-  <si>
-    <t>running a business empire</t>
-  </si>
-  <si>
-    <t>Abstract views on running a business empire</t>
-  </si>
-  <si>
-    <t>Buck Rogers</t>
-  </si>
-  <si>
-    <t>surviving in the 25th century</t>
-  </si>
-  <si>
-    <t>Abstract views on surviving in the 25th century</t>
-  </si>
-  <si>
-    <t>Bill Murray</t>
-  </si>
-  <si>
-    <t>starring in indy movies</t>
-  </si>
-  <si>
-    <t>telling dry jokes</t>
-  </si>
-  <si>
-    <t>Abstract views on starring in indy movies</t>
-  </si>
-  <si>
-    <t>Hermione Granger</t>
-  </si>
-  <si>
-    <t>concocting magic potions</t>
-  </si>
-  <si>
-    <t>casting magic spells</t>
-  </si>
-  <si>
-    <t>Abstract views on concocting magic potions</t>
-  </si>
-  <si>
-    <t>Baron Munchausen</t>
-  </si>
-  <si>
-    <t>telling tall tales</t>
-  </si>
-  <si>
-    <t>inventing lies</t>
-  </si>
-  <si>
-    <t>Abstract views on telling tall tales</t>
-  </si>
-  <si>
-    <t>Lt. George Colthurst St Barleigh</t>
-  </si>
-  <si>
-    <t>providing comic relief</t>
-  </si>
-  <si>
-    <t>Abstract views on providing comic relief</t>
-  </si>
-  <si>
-    <t>Robert E. Lee</t>
-  </si>
-  <si>
-    <t>winning battles</t>
-  </si>
-  <si>
-    <t>developing military strategies</t>
-  </si>
-  <si>
-    <t>leading armies into battle</t>
-  </si>
-  <si>
-    <t>Samuel Pepys</t>
-  </si>
-  <si>
-    <t>keeping a diary</t>
-  </si>
-  <si>
-    <t>Abstract views on keeping a diary</t>
-  </si>
-  <si>
-    <t>Adam Smith</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
-  </si>
-  <si>
-    <t>Abstract views on promoting capitalism</t>
-  </si>
-  <si>
-    <t>Tyrion Lannister</t>
-  </si>
-  <si>
-    <t>developing political strategies</t>
-  </si>
-  <si>
-    <t>Abstract views on developing political strategies</t>
-  </si>
-  <si>
-    <t>Audrey Hepburn</t>
-  </si>
-  <si>
-    <t>Chief Clarence Wiggum</t>
-  </si>
-  <si>
-    <t>eating donuts</t>
-  </si>
-  <si>
-    <t>Abstract views on eating donuts</t>
-  </si>
-  <si>
-    <t>Mr. Spock</t>
-  </si>
-  <si>
-    <t>promoting science</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>promoting logical thinking</t>
-  </si>
-  <si>
-    <t>Orson Welles</t>
-  </si>
-  <si>
-    <t>directing Hollywood movies</t>
-  </si>
-  <si>
-    <t>writing Hollywood movies</t>
-  </si>
-  <si>
-    <t>directing indy movies</t>
-  </si>
-  <si>
-    <t>Nigel Tufnel</t>
-  </si>
-  <si>
-    <t>turning it up to 11</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>chasing rabbits</t>
-  </si>
-  <si>
-    <t>spitting while speaking</t>
-  </si>
-  <si>
-    <t>Abstract views on chasing rabbits</t>
-  </si>
-  <si>
-    <t>Tess Durbeyfield</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> climbing social ladders</t>
-  </si>
-  <si>
-    <t>Abstract views on  climbing social ladders</t>
-  </si>
-  <si>
-    <t>Cameron Diaz</t>
-  </si>
-  <si>
-    <t>Mata Hari</t>
-  </si>
-  <si>
-    <t>spying for the enemy</t>
-  </si>
-  <si>
-    <t>seducing miltary officers</t>
-  </si>
-  <si>
-    <t>selling military secrets</t>
-  </si>
-  <si>
-    <t>Bette Midler</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>over-acting</t>
-  </si>
-  <si>
-    <t>Abstract views on singing torch songs</t>
-  </si>
-  <si>
-    <t>Coriolanus Snow</t>
-  </si>
-  <si>
-    <t>running a bureaucracy</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>crushing dissent</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>investing in real estate</t>
-  </si>
-  <si>
-    <t>developing real estate</t>
-  </si>
-  <si>
-    <t>building giant walls</t>
-  </si>
-  <si>
-    <t>postulating bizarre theories,</t>
-  </si>
-  <si>
-    <t>Michael Bay</t>
-  </si>
-  <si>
-    <t>directing action movies</t>
-  </si>
-  <si>
-    <t>entertaining teenagers</t>
-  </si>
-  <si>
-    <t>directing robot movies</t>
-  </si>
-  <si>
-    <t>Shirley Temple</t>
-  </si>
-  <si>
-    <t>King David</t>
-  </si>
-  <si>
-    <t>ruling over subjects</t>
-  </si>
-  <si>
-    <t>running a kingdom</t>
-  </si>
-  <si>
-    <t>Abstract views on ruling over subjects</t>
-  </si>
-  <si>
-    <t>Paul McCartney</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>Abstract views on singing pop songs</t>
-  </si>
-  <si>
-    <t>Phoebe Buffay</t>
-  </si>
-  <si>
-    <t>singing parody songs</t>
-  </si>
-  <si>
-    <t>singing goofy songs</t>
-  </si>
-  <si>
-    <t>Abstract views on singing parody songs</t>
-  </si>
-  <si>
-    <t>Superman</t>
-  </si>
-  <si>
-    <t>reporting the news</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>fighting for justice</t>
-  </si>
-  <si>
-    <t>defending the weak</t>
-  </si>
-  <si>
-    <t>Richard B. Riddick</t>
-  </si>
-  <si>
-    <t>evading mercenaries</t>
-  </si>
-  <si>
-    <t>Abstract views on evading mercenaries</t>
-  </si>
-  <si>
-    <t>Princess Diana</t>
-  </si>
-  <si>
-    <t>posing for photographs</t>
-  </si>
-  <si>
-    <t>Abstract views on posing for photographs</t>
-  </si>
-  <si>
-    <t>Bilbo Baggins</t>
-  </si>
-  <si>
-    <t>solving riddles</t>
-  </si>
-  <si>
-    <t>posing riddles</t>
-  </si>
-  <si>
-    <t>Abstract views on solving riddles</t>
-  </si>
-  <si>
-    <t>George Clooney</t>
-  </si>
-  <si>
-    <t>womanizing</t>
-  </si>
-  <si>
-    <t>promoting political causes</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw</t>
-  </si>
-  <si>
-    <t>writing about sex</t>
-  </si>
-  <si>
-    <t>shopping for shoes</t>
-  </si>
-  <si>
-    <t>gossiping with galpals</t>
-  </si>
-  <si>
-    <t>Saint Peter</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>Abstract views on promoting conservative values</t>
-  </si>
-  <si>
-    <t>Dr. Eldon Tyrell</t>
-  </si>
-  <si>
-    <t>designing replicants</t>
-  </si>
-  <si>
-    <t>building replicants</t>
-  </si>
-  <si>
-    <t>Abstract views on designing replicants</t>
-  </si>
-  <si>
-    <t>Agent Smith</t>
-  </si>
-  <si>
-    <t>fighting the resistance</t>
-  </si>
-  <si>
-    <t>Abstract views on fighting the resistance</t>
-  </si>
-  <si>
-    <t>Fred Astaire</t>
-  </si>
-  <si>
-    <t>starring in musical comedies</t>
-  </si>
-  <si>
-    <t>enjoying ball-room dancing</t>
-  </si>
-  <si>
-    <t>David Blaine</t>
-  </si>
-  <si>
-    <t>performing street magic</t>
-  </si>
-  <si>
-    <t>performing magic tricks</t>
-  </si>
-  <si>
-    <t>Abstract views on performing street magic</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>running a multinational corporation</t>
-  </si>
-  <si>
-    <t>seducing women</t>
-  </si>
-  <si>
-    <t>Howard Stern</t>
-  </si>
-  <si>
-    <t>shocking radio listeners</t>
-  </si>
-  <si>
-    <t>hosting radio shows</t>
-  </si>
-  <si>
-    <t>Abstract views on shocking radio listeners</t>
-  </si>
-  <si>
-    <t>Morty Smith</t>
-  </si>
-  <si>
-    <t>standing up to bullies</t>
-  </si>
-  <si>
-    <t>spying on girls</t>
-  </si>
-  <si>
-    <t>Abstract views on standing up to bullies</t>
-  </si>
-  <si>
-    <t>Barack Obama</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency</t>
-  </si>
-  <si>
-    <t>giving speeches</t>
-  </si>
-  <si>
-    <t>Abstract views on campaigning for the presidency</t>
+    <t>crooning love songs</t>
+  </si>
+  <si>
+    <t>Megan Fox</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies,</t>
+  </si>
+  <si>
+    <t>Abstract views on starring in Hollywood movies,</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t>Richard Branson</t>
+  </si>
+  <si>
+    <t>selling airline seats</t>
+  </si>
+  <si>
+    <t>Abstract views on running a multinational corporation</t>
   </si>
   <si>
     <t>Frodo Baggins</t>
@@ -590,67 +518,97 @@
     <t>Abstract views on disposing of unwanted jewelry</t>
   </si>
   <si>
-    <t>Julius Caesar</t>
-  </si>
-  <si>
-    <t>Abstract views on running an empire</t>
-  </si>
-  <si>
-    <t>Frank Underwood</t>
-  </si>
-  <si>
-    <t>plotting election strategies</t>
-  </si>
-  <si>
-    <t>directing the business of state</t>
-  </si>
-  <si>
-    <t>manipulating political pawns</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Abstract views on promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Rembrandt</t>
-  </si>
-  <si>
-    <t>painting colorful pictures</t>
-  </si>
-  <si>
-    <t>painting self-portraits</t>
-  </si>
-  <si>
-    <t>Abstract views on painting colorful pictures</t>
-  </si>
-  <si>
-    <t>Michael Myers</t>
-  </si>
-  <si>
-    <t>terrorizing sleepers</t>
-  </si>
-  <si>
-    <t>creating nightmares</t>
-  </si>
-  <si>
-    <t>killing teenagers</t>
-  </si>
-  <si>
-    <t>slashing victims</t>
-  </si>
-  <si>
-    <t>Buddy Holly</t>
+    <t>Billy Crystal</t>
+  </si>
+  <si>
+    <t>starring in comedies</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>pursuing criminals</t>
+  </si>
+  <si>
+    <t>tricking criminals</t>
+  </si>
+  <si>
+    <t>Polonius</t>
+  </si>
+  <si>
+    <t>coining sententious maxims</t>
+  </si>
+  <si>
+    <t>offering bad advice</t>
+  </si>
+  <si>
+    <t>Abstract views on coining sententious maxims</t>
+  </si>
+  <si>
+    <t>Angelina Jolie</t>
+  </si>
+  <si>
+    <t>adopting children</t>
+  </si>
+  <si>
+    <t>Abstract views on adopting children</t>
+  </si>
+  <si>
+    <t>Robbie Williams</t>
+  </si>
+  <si>
+    <t>Lance Armstrong</t>
+  </si>
+  <si>
+    <t>taking anabolic steroids</t>
+  </si>
+  <si>
+    <t>pedalling furiously</t>
+  </si>
+  <si>
+    <t>riding a bicycle</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>ranting about politics</t>
+  </si>
+  <si>
+    <t>Abstract views on ranting about politics</t>
+  </si>
+  <si>
+    <t>Walt Longmire</t>
+  </si>
+  <si>
+    <t>Matt Drudge</t>
+  </si>
+  <si>
+    <t>spreading political gossip</t>
+  </si>
+  <si>
+    <t>Michael Phelps</t>
+  </si>
+  <si>
+    <t>winning gold medals</t>
+  </si>
+  <si>
+    <t>winning swimming competitions</t>
+  </si>
+  <si>
+    <t>Abstract views on winning gold medals</t>
+  </si>
+  <si>
+    <t>Mike Tyson</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles</t>
+  </si>
+  <si>
+    <t>knocking out opponents</t>
+  </si>
+  <si>
+    <t>winning boxing matches</t>
   </si>
 </sst>
 </file>
@@ -701,14 +659,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C167"/>
+  <dimension ref="A1:C180"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.09765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.5234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.3359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.40234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="15.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -742,7 +700,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -750,7 +708,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -758,10 +716,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -769,13 +727,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -802,10 +760,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -813,7 +771,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -824,7 +782,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -835,7 +793,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -852,7 +810,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -863,7 +821,7 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -874,7 +832,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -885,40 +843,40 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -929,7 +887,7 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -940,7 +898,7 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -951,15 +909,15 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
         <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -967,21 +925,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
         <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -989,10 +947,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -1000,7 +958,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
@@ -1011,65 +969,65 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
         <v>42</v>
       </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -1077,43 +1035,43 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -1121,10 +1079,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -1132,10 +1090,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -1143,10 +1101,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -1154,10 +1112,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -1165,10 +1123,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -1176,10 +1134,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -1187,21 +1145,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1209,10 +1167,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1220,65 +1178,65 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -1286,10 +1244,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -1297,131 +1255,131 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -1429,10 +1387,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -1440,10 +1398,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
@@ -1451,120 +1409,120 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B76" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -1572,109 +1530,109 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B79" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B80" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B81" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B82" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B83" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B85" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B86" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B87" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B88" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -1682,120 +1640,120 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B89" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B90" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B91" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B93" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B94" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="C94" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B95" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="C95" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B96" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="C96" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B97" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B98" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B99" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -1803,43 +1761,43 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B100" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B101" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B102" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B103" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -1847,10 +1805,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B104" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -1858,10 +1816,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B105" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -1869,98 +1827,98 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B106" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B107" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B108" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C108" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B109" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C109" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B110" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B111" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B112" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="C112" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="C113" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B114" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -1968,43 +1926,43 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B115" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C115" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B116" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B117" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B118" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
@@ -2012,10 +1970,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B119" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
@@ -2023,109 +1981,109 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B120" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C120" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B121" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C121" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B122" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C122" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B123" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C123" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B124" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C124" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B125" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="C125" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B126" t="s">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="C126" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B127" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B128" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C128" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B129" t="s">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2133,43 +2091,43 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B130" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C130" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B131" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B132" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C132" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B133" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2177,76 +2135,76 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B134" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C134" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B135" t="s">
-        <v>176</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B136" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C136" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B137" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C137" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B138" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="C138" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B139" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B140" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2254,10 +2212,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B141" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
@@ -2265,10 +2223,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B142" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C142" t="s">
         <v>14</v>
@@ -2276,21 +2234,21 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B143" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="C143" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B144" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2298,32 +2256,32 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B145" t="s">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="C145" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B146" t="s">
-        <v>188</v>
+        <v>115</v>
       </c>
       <c r="C146" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B147" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="C147" t="s">
         <v>14</v>
@@ -2331,10 +2289,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B148" t="s">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
@@ -2342,32 +2300,32 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="B149" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C149" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="B150" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="C150" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="B151" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C151" t="s">
         <v>14</v>
@@ -2375,10 +2333,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="B152" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="C152" t="s">
         <v>14</v>
@@ -2386,10 +2344,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="B153" t="s">
-        <v>197</v>
+        <v>16</v>
       </c>
       <c r="C153" t="s">
         <v>14</v>
@@ -2397,10 +2355,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B154" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C154" t="s">
         <v>14</v>
@@ -2408,10 +2366,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B155" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C155" t="s">
         <v>14</v>
@@ -2419,109 +2377,109 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="B156" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C156" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B157" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="C157" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B158" t="s">
-        <v>204</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B159" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="C159" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="B160" t="s">
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="C160" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="B161" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="C161" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="B162" t="s">
-        <v>209</v>
+        <v>101</v>
       </c>
       <c r="C162" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="B163" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="C163" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="B164" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="C164" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="B165" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -2529,24 +2487,167 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="B166" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="C166" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="B167" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="C167" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>188</v>
+      </c>
+      <c r="B168" t="s">
+        <v>37</v>
+      </c>
+      <c r="C168" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>188</v>
+      </c>
+      <c r="B169" t="s">
+        <v>38</v>
+      </c>
+      <c r="C169" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>188</v>
+      </c>
+      <c r="B170" t="s">
+        <v>83</v>
+      </c>
+      <c r="C170" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>188</v>
+      </c>
+      <c r="B171" t="s">
+        <v>84</v>
+      </c>
+      <c r="C171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>189</v>
+      </c>
+      <c r="B172" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>189</v>
+      </c>
+      <c r="B173" t="s">
+        <v>19</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>189</v>
+      </c>
+      <c r="B174" t="s">
+        <v>190</v>
+      </c>
+      <c r="C174" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>191</v>
+      </c>
+      <c r="B175" t="s">
+        <v>192</v>
+      </c>
+      <c r="C175" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>191</v>
+      </c>
+      <c r="B176" t="s">
+        <v>193</v>
+      </c>
+      <c r="C176" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>191</v>
+      </c>
+      <c r="B177" t="s">
+        <v>194</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>195</v>
+      </c>
+      <c r="B178" t="s">
+        <v>196</v>
+      </c>
+      <c r="C178" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>195</v>
+      </c>
+      <c r="B179" t="s">
+        <v>197</v>
+      </c>
+      <c r="C179" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>195</v>
+      </c>
+      <c r="B180" t="s">
+        <v>198</v>
+      </c>
+      <c r="C180" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
